--- a/Data/AllResults_VANCOMYCIN 1GM.xlsx
+++ b/Data/AllResults_VANCOMYCIN 1GM.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="50">
   <si>
     <t>Molecule</t>
   </si>
@@ -261,16 +261,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -279,10 +279,10 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
@@ -293,16 +293,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -311,10 +311,10 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
